--- a/artfynd/A 2044-2026 artfynd.xlsx
+++ b/artfynd/A 2044-2026 artfynd.xlsx
@@ -1025,7 +1025,7 @@
         <v>130872700</v>
       </c>
       <c r="B5" t="n">
-        <v>78996</v>
+        <v>79000</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>130872713</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>130872699</v>
       </c>
       <c r="B8" t="n">
-        <v>78996</v>
+        <v>79000</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130872710</v>
+        <v>130872707</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>570585</v>
+        <v>570828</v>
       </c>
       <c r="R9" t="n">
-        <v>6736756</v>
+        <v>6736602</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1507,10 +1507,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130872707</v>
+        <v>130872710</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>570828</v>
+        <v>570585</v>
       </c>
       <c r="R10" t="n">
-        <v>6736602</v>
+        <v>6736756</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1607,7 +1607,7 @@
         <v>130872720</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>130872698</v>
       </c>
       <c r="B12" t="n">
-        <v>78996</v>
+        <v>79000</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>130872717</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>130872695</v>
       </c>
       <c r="B14" t="n">
-        <v>78997</v>
+        <v>79001</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>130872715</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>130872718</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>130872714</v>
       </c>
       <c r="B17" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>130872709</v>
       </c>
       <c r="B18" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>130872711</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>130872696</v>
       </c>
       <c r="B20" t="n">
-        <v>78997</v>
+        <v>79001</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>130872716</v>
       </c>
       <c r="B22" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>130983610</v>
       </c>
       <c r="B23" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>130979096</v>
       </c>
       <c r="B24" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>130979083</v>
       </c>
       <c r="B25" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>130983609</v>
       </c>
       <c r="B27" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3298,10 +3298,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130979098</v>
+        <v>130979095</v>
       </c>
       <c r="B28" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3333,10 +3333,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>571475</v>
+        <v>571648</v>
       </c>
       <c r="R28" t="n">
-        <v>6736616</v>
+        <v>6736781</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3395,10 +3395,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130979095</v>
+        <v>130979098</v>
       </c>
       <c r="B29" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3430,10 +3430,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>571648</v>
+        <v>571475</v>
       </c>
       <c r="R29" t="n">
-        <v>6736781</v>
+        <v>6736616</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130979089</v>
+        <v>130983077</v>
       </c>
       <c r="B30" t="n">
-        <v>57072</v>
+        <v>5177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3503,37 +3503,46 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>102613</v>
+        <v>100526</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>570598</v>
+        <v>571069</v>
       </c>
       <c r="R30" t="n">
-        <v>6736697</v>
+        <v>6736680</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3560,14 +3569,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>11:22</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Överflygande</t>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3576,28 +3590,29 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130983077</v>
+        <v>130979089</v>
       </c>
       <c r="B31" t="n">
-        <v>5177</v>
+        <v>57076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3605,46 +3620,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100526</v>
+        <v>102613</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>571069</v>
+        <v>570598</v>
       </c>
       <c r="R31" t="n">
-        <v>6736680</v>
+        <v>6736697</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3671,19 +3677,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>11:22</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>11:22</t>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Överflygande</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3692,19 +3693,18 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
@@ -3714,7 +3714,7 @@
         <v>130983618</v>
       </c>
       <c r="B32" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>130979099</v>
       </c>
       <c r="B34" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>130983069</v>
       </c>
       <c r="B35" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4140,10 +4140,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130979080</v>
+        <v>130983068</v>
       </c>
       <c r="B36" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4151,21 +4151,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4175,13 +4175,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>571221</v>
+        <v>570849</v>
       </c>
       <c r="R36" t="n">
-        <v>6736517</v>
+        <v>6736706</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4208,14 +4208,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Äldre ringhack</t>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4224,28 +4229,29 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130983068</v>
+        <v>130979080</v>
       </c>
       <c r="B37" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4253,21 +4259,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4277,13 +4283,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>570849</v>
+        <v>571221</v>
       </c>
       <c r="R37" t="n">
-        <v>6736706</v>
+        <v>6736517</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4310,19 +4316,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>09:25</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>09:25</t>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4331,19 +4332,18 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
@@ -4353,7 +4353,7 @@
         <v>130983070</v>
       </c>
       <c r="B38" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>130983617</v>
       </c>
       <c r="B39" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>130983600</v>
       </c>
       <c r="B40" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>130979090</v>
       </c>
       <c r="B42" t="n">
-        <v>78996</v>
+        <v>79000</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130983614</v>
+        <v>130983065</v>
       </c>
       <c r="B43" t="n">
-        <v>79239</v>
+        <v>91828</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4905,34 +4905,30 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>571012</v>
+        <v>570827</v>
       </c>
       <c r="R43" t="n">
-        <v>6736611</v>
+        <v>6736626</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4964,7 +4960,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -4974,37 +4970,38 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130983065</v>
+        <v>130983614</v>
       </c>
       <c r="B44" t="n">
-        <v>91824</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5012,30 +5009,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>570827</v>
+        <v>571012</v>
       </c>
       <c r="R44" t="n">
-        <v>6736626</v>
+        <v>6736611</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5067,7 +5068,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5077,28 +5078,27 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF44" t="inlineStr"/>
+        <v>0</v>
+      </c>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
@@ -5108,7 +5108,7 @@
         <v>130983615</v>
       </c>
       <c r="B45" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>130979085</v>
       </c>
       <c r="B46" t="n">
-        <v>91825</v>
+        <v>91829</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>130979081</v>
       </c>
       <c r="B47" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>130983067</v>
       </c>
       <c r="B48" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>130983056</v>
       </c>
       <c r="B49" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>130983612</v>
       </c>
       <c r="B51" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>130983616</v>
       </c>
       <c r="B52" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>130983607</v>
       </c>
       <c r="B53" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>130983611</v>
       </c>
       <c r="B54" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>130979100</v>
       </c>
       <c r="B56" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>130979104</v>
       </c>
       <c r="B57" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6500,10 +6500,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130979086</v>
+        <v>130979094</v>
       </c>
       <c r="B58" t="n">
-        <v>91825</v>
+        <v>79243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6511,21 +6511,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6535,10 +6535,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>571361</v>
+        <v>571278</v>
       </c>
       <c r="R58" t="n">
-        <v>6736509</v>
+        <v>6736783</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -6597,10 +6597,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130979094</v>
+        <v>130979086</v>
       </c>
       <c r="B59" t="n">
-        <v>79239</v>
+        <v>91829</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6608,21 +6608,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>571278</v>
+        <v>571361</v>
       </c>
       <c r="R59" t="n">
-        <v>6736783</v>
+        <v>6736509</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>

--- a/artfynd/A 2044-2026 artfynd.xlsx
+++ b/artfynd/A 2044-2026 artfynd.xlsx
@@ -1701,10 +1701,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130872698</v>
+        <v>130872695</v>
       </c>
       <c r="B12" t="n">
-        <v>79000</v>
+        <v>79001</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1712,21 +1712,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>570821</v>
+        <v>570816</v>
       </c>
       <c r="R12" t="n">
-        <v>6736787</v>
+        <v>6736802</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130872717</v>
+        <v>130872698</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>79000</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1809,21 +1809,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>571254</v>
+        <v>570821</v>
       </c>
       <c r="R13" t="n">
-        <v>6736578</v>
+        <v>6736787</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130872695</v>
+        <v>130872717</v>
       </c>
       <c r="B14" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1906,21 +1906,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>570816</v>
+        <v>571254</v>
       </c>
       <c r="R14" t="n">
-        <v>6736802</v>
+        <v>6736578</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130979083</v>
+        <v>130983063</v>
       </c>
       <c r="B25" t="n">
-        <v>57073</v>
+        <v>8451</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2983,37 +2983,46 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100138</v>
+        <v>106545</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>570745</v>
+        <v>570956</v>
       </c>
       <c r="R25" t="n">
-        <v>6736794</v>
+        <v>6736657</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3040,14 +3049,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>09:32</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Färsk spillning</t>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3056,28 +3070,29 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130983063</v>
+        <v>130979083</v>
       </c>
       <c r="B26" t="n">
-        <v>8451</v>
+        <v>57073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3085,46 +3100,37 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>106545</v>
+        <v>100138</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>570956</v>
+        <v>570745</v>
       </c>
       <c r="R26" t="n">
-        <v>6736657</v>
+        <v>6736794</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3151,19 +3157,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>09:32</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>09:32</t>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Färsk spillning</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3172,19 +3173,18 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
@@ -3711,45 +3711,54 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130983618</v>
+        <v>130983060</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>570808</v>
+        <v>570988</v>
       </c>
       <c r="R32" t="n">
-        <v>6736568</v>
+        <v>6736721</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3781,7 +3790,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -3791,7 +3800,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3800,72 +3809,64 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130983060</v>
+        <v>130983618</v>
       </c>
       <c r="B33" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>570988</v>
+        <v>570808</v>
       </c>
       <c r="R33" t="n">
-        <v>6736721</v>
+        <v>6736568</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3897,7 +3898,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -3907,7 +3908,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3916,19 +3917,18 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -4140,10 +4140,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130983068</v>
+        <v>130979080</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4151,21 +4151,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4175,13 +4175,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>570849</v>
+        <v>571221</v>
       </c>
       <c r="R36" t="n">
-        <v>6736706</v>
+        <v>6736517</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4208,19 +4208,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>09:25</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>09:25</t>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4229,29 +4224,28 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130979080</v>
+        <v>130983068</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4259,21 +4253,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4283,13 +4277,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>571221</v>
+        <v>570849</v>
       </c>
       <c r="R37" t="n">
-        <v>6736517</v>
+        <v>6736706</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4316,14 +4310,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Äldre ringhack</t>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4332,28 +4331,29 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130983070</v>
+        <v>130983600</v>
       </c>
       <c r="B38" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4361,34 +4361,42 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>570811</v>
+        <v>571022</v>
       </c>
       <c r="R38" t="n">
-        <v>6736543</v>
+        <v>6736648</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4420,7 +4428,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4430,35 +4438,34 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF38" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130983617</v>
+        <v>130983070</v>
       </c>
       <c r="B39" t="n">
         <v>79243</v>
@@ -4489,14 +4496,14 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>570789</v>
+        <v>570811</v>
       </c>
       <c r="R39" t="n">
-        <v>6736672</v>
+        <v>6736543</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4528,7 +4535,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4538,7 +4545,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4547,28 +4554,29 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130983600</v>
+        <v>130983617</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4576,42 +4584,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>571022</v>
+        <v>570789</v>
       </c>
       <c r="R40" t="n">
-        <v>6736648</v>
+        <v>6736672</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4653,14 +4653,14 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="b">
         <v>0</v>

--- a/artfynd/A 2044-2026 artfynd.xlsx
+++ b/artfynd/A 2044-2026 artfynd.xlsx
@@ -1119,32 +1119,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130872697</v>
+        <v>130872713</v>
       </c>
       <c r="B6" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>570626</v>
+        <v>570831</v>
       </c>
       <c r="R6" t="n">
-        <v>6736614</v>
+        <v>6736787</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1216,32 +1216,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130872713</v>
+        <v>130872697</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1251,10 +1251,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>570831</v>
+        <v>570626</v>
       </c>
       <c r="R7" t="n">
-        <v>6736787</v>
+        <v>6736614</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1701,10 +1701,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130872695</v>
+        <v>130872698</v>
       </c>
       <c r="B12" t="n">
-        <v>79001</v>
+        <v>79000</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1712,21 +1712,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>570816</v>
+        <v>570821</v>
       </c>
       <c r="R12" t="n">
-        <v>6736802</v>
+        <v>6736787</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130872698</v>
+        <v>130872717</v>
       </c>
       <c r="B13" t="n">
-        <v>79000</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1809,21 +1809,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>570821</v>
+        <v>571254</v>
       </c>
       <c r="R13" t="n">
-        <v>6736787</v>
+        <v>6736578</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130872717</v>
+        <v>130872695</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1906,21 +1906,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>571254</v>
+        <v>570816</v>
       </c>
       <c r="R14" t="n">
-        <v>6736578</v>
+        <v>6736802</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2574,32 +2574,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130872725</v>
+        <v>130872716</v>
       </c>
       <c r="B21" t="n">
-        <v>5177</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2609,10 +2609,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>570869</v>
+        <v>570988</v>
       </c>
       <c r="R21" t="n">
-        <v>6736590</v>
+        <v>6736647</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2671,32 +2671,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130872716</v>
+        <v>130872725</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>5177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>570988</v>
+        <v>570869</v>
       </c>
       <c r="R22" t="n">
-        <v>6736647</v>
+        <v>6736590</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130983063</v>
+        <v>130979083</v>
       </c>
       <c r="B25" t="n">
-        <v>8451</v>
+        <v>57073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2983,46 +2983,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>106545</v>
+        <v>100138</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>570956</v>
+        <v>570745</v>
       </c>
       <c r="R25" t="n">
-        <v>6736657</v>
+        <v>6736794</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3049,19 +3040,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>09:32</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>09:32</t>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Färsk spillning</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3070,29 +3056,28 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130979083</v>
+        <v>130983063</v>
       </c>
       <c r="B26" t="n">
-        <v>57073</v>
+        <v>8451</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3100,37 +3085,46 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100138</v>
+        <v>106545</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>570745</v>
+        <v>570956</v>
       </c>
       <c r="R26" t="n">
-        <v>6736794</v>
+        <v>6736657</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3157,14 +3151,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>09:32</t>
+        </is>
+      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Färsk spillning</t>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3173,18 +3172,19 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
@@ -3711,54 +3711,45 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130983060</v>
+        <v>130983618</v>
       </c>
       <c r="B32" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>570988</v>
+        <v>570808</v>
       </c>
       <c r="R32" t="n">
-        <v>6736721</v>
+        <v>6736568</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3790,7 +3781,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -3800,7 +3791,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3809,64 +3800,72 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130983618</v>
+        <v>130983060</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>570808</v>
+        <v>570988</v>
       </c>
       <c r="R33" t="n">
-        <v>6736568</v>
+        <v>6736721</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3898,7 +3897,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -3908,7 +3907,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3917,18 +3916,19 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -4140,10 +4140,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130979080</v>
+        <v>130983068</v>
       </c>
       <c r="B36" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4151,21 +4151,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4175,13 +4175,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>571221</v>
+        <v>570849</v>
       </c>
       <c r="R36" t="n">
-        <v>6736517</v>
+        <v>6736706</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4208,14 +4208,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Äldre ringhack</t>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4224,28 +4229,29 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130983068</v>
+        <v>130979080</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4253,21 +4259,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4277,13 +4283,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>570849</v>
+        <v>571221</v>
       </c>
       <c r="R37" t="n">
-        <v>6736706</v>
+        <v>6736517</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4310,19 +4316,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>09:25</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>09:25</t>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4331,29 +4332,28 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130983600</v>
+        <v>130983070</v>
       </c>
       <c r="B38" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4361,42 +4361,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>571022</v>
+        <v>570811</v>
       </c>
       <c r="R38" t="n">
-        <v>6736648</v>
+        <v>6736543</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4428,7 +4420,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4438,34 +4430,35 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130983070</v>
+        <v>130983617</v>
       </c>
       <c r="B39" t="n">
         <v>79243</v>
@@ -4496,14 +4489,14 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>570811</v>
+        <v>570789</v>
       </c>
       <c r="R39" t="n">
-        <v>6736543</v>
+        <v>6736672</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4535,7 +4528,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4545,7 +4538,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4554,29 +4547,28 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130983617</v>
+        <v>130983600</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4584,34 +4576,42 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>570789</v>
+        <v>571022</v>
       </c>
       <c r="R40" t="n">
-        <v>6736672</v>
+        <v>6736648</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4653,14 +4653,14 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG40" t="b">
         <v>0</v>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130983065</v>
+        <v>130983614</v>
       </c>
       <c r="B43" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4905,30 +4905,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>570827</v>
+        <v>571012</v>
       </c>
       <c r="R43" t="n">
-        <v>6736626</v>
+        <v>6736611</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4960,7 +4964,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -4970,38 +4974,37 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF43" t="inlineStr"/>
+        <v>0</v>
+      </c>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130983614</v>
+        <v>130983065</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5009,34 +5012,30 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>571012</v>
+        <v>570827</v>
       </c>
       <c r="R44" t="n">
-        <v>6736611</v>
+        <v>6736626</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5068,7 +5067,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5078,27 +5077,28 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
@@ -6081,45 +6081,54 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130983611</v>
+        <v>130983062</v>
       </c>
       <c r="B54" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>571283</v>
+        <v>571286</v>
       </c>
       <c r="R54" t="n">
-        <v>6736557</v>
+        <v>6736563</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6151,7 +6160,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6161,7 +6170,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6170,72 +6179,64 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130983062</v>
+        <v>130983611</v>
       </c>
       <c r="B55" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>571286</v>
+        <v>571283</v>
       </c>
       <c r="R55" t="n">
-        <v>6736563</v>
+        <v>6736557</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6267,7 +6268,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6277,7 +6278,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6286,29 +6287,28 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130979100</v>
+        <v>130979086</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6316,21 +6316,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6340,10 +6340,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>571473</v>
+        <v>571361</v>
       </c>
       <c r="R56" t="n">
-        <v>6736490</v>
+        <v>6736509</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130979104</v>
+        <v>130979100</v>
       </c>
       <c r="B57" t="n">
         <v>79243</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>571129</v>
+        <v>571473</v>
       </c>
       <c r="R57" t="n">
-        <v>6736573</v>
+        <v>6736490</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -6481,7 +6481,6 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -6500,7 +6499,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130979094</v>
+        <v>130979104</v>
       </c>
       <c r="B58" t="n">
         <v>79243</v>
@@ -6535,10 +6534,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>571278</v>
+        <v>571129</v>
       </c>
       <c r="R58" t="n">
-        <v>6736783</v>
+        <v>6736573</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -6579,6 +6578,7 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -6597,10 +6597,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130979086</v>
+        <v>130979094</v>
       </c>
       <c r="B59" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6608,21 +6608,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>571361</v>
+        <v>571278</v>
       </c>
       <c r="R59" t="n">
-        <v>6736509</v>
+        <v>6736783</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>

--- a/artfynd/A 2044-2026 artfynd.xlsx
+++ b/artfynd/A 2044-2026 artfynd.xlsx
@@ -2574,32 +2574,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130872716</v>
+        <v>130872725</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>5177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2609,10 +2609,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>570988</v>
+        <v>570869</v>
       </c>
       <c r="R21" t="n">
-        <v>6736647</v>
+        <v>6736590</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2671,32 +2671,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130872725</v>
+        <v>130872716</v>
       </c>
       <c r="B22" t="n">
-        <v>5177</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>570869</v>
+        <v>570988</v>
       </c>
       <c r="R22" t="n">
-        <v>6736590</v>
+        <v>6736647</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -4140,10 +4140,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130983068</v>
+        <v>130979080</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4151,21 +4151,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4175,13 +4175,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>570849</v>
+        <v>571221</v>
       </c>
       <c r="R36" t="n">
-        <v>6736706</v>
+        <v>6736517</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4208,19 +4208,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>09:25</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>09:25</t>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4229,29 +4224,28 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130979080</v>
+        <v>130983068</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4259,21 +4253,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4283,13 +4277,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>571221</v>
+        <v>570849</v>
       </c>
       <c r="R37" t="n">
-        <v>6736517</v>
+        <v>6736706</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4316,14 +4310,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Äldre ringhack</t>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4332,18 +4331,19 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
@@ -6305,10 +6305,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130979086</v>
+        <v>130979100</v>
       </c>
       <c r="B56" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6316,21 +6316,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6340,10 +6340,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>571361</v>
+        <v>571473</v>
       </c>
       <c r="R56" t="n">
-        <v>6736509</v>
+        <v>6736490</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130979100</v>
+        <v>130979104</v>
       </c>
       <c r="B57" t="n">
         <v>79243</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>571473</v>
+        <v>571129</v>
       </c>
       <c r="R57" t="n">
-        <v>6736490</v>
+        <v>6736573</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -6481,6 +6481,7 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -6499,7 +6500,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130979104</v>
+        <v>130979094</v>
       </c>
       <c r="B58" t="n">
         <v>79243</v>
@@ -6534,10 +6535,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>571129</v>
+        <v>571278</v>
       </c>
       <c r="R58" t="n">
-        <v>6736573</v>
+        <v>6736783</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -6578,7 +6579,6 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -6597,10 +6597,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130979094</v>
+        <v>130979086</v>
       </c>
       <c r="B59" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6608,21 +6608,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>571278</v>
+        <v>571361</v>
       </c>
       <c r="R59" t="n">
-        <v>6736783</v>
+        <v>6736509</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>

--- a/artfynd/A 2044-2026 artfynd.xlsx
+++ b/artfynd/A 2044-2026 artfynd.xlsx
@@ -1410,7 +1410,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130872707</v>
+        <v>130872710</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>570828</v>
+        <v>570585</v>
       </c>
       <c r="R9" t="n">
-        <v>6736602</v>
+        <v>6736756</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130872710</v>
+        <v>130872707</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>570585</v>
+        <v>570828</v>
       </c>
       <c r="R10" t="n">
-        <v>6736756</v>
+        <v>6736602</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130872715</v>
+        <v>130872718</v>
       </c>
       <c r="B15" t="n">
         <v>79243</v>
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>571193</v>
+        <v>571142</v>
       </c>
       <c r="R15" t="n">
-        <v>6736684</v>
+        <v>6736599</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130872718</v>
+        <v>130872714</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>571142</v>
+        <v>570912</v>
       </c>
       <c r="R16" t="n">
-        <v>6736599</v>
+        <v>6736673</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130872714</v>
+        <v>130872715</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2221,10 +2221,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>570912</v>
+        <v>571193</v>
       </c>
       <c r="R17" t="n">
-        <v>6736673</v>
+        <v>6736684</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130979083</v>
+        <v>130983063</v>
       </c>
       <c r="B25" t="n">
-        <v>57073</v>
+        <v>8451</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2983,37 +2983,46 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100138</v>
+        <v>106545</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>570745</v>
+        <v>570956</v>
       </c>
       <c r="R25" t="n">
-        <v>6736794</v>
+        <v>6736657</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3040,14 +3049,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>09:32</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Färsk spillning</t>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3056,28 +3070,29 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130983063</v>
+        <v>130979083</v>
       </c>
       <c r="B26" t="n">
-        <v>8451</v>
+        <v>57073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3085,46 +3100,37 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>106545</v>
+        <v>100138</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>570956</v>
+        <v>570745</v>
       </c>
       <c r="R26" t="n">
-        <v>6736657</v>
+        <v>6736794</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3151,19 +3157,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>09:32</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>09:32</t>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Färsk spillning</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3172,19 +3173,18 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
@@ -3711,45 +3711,54 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130983618</v>
+        <v>130983060</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>570808</v>
+        <v>570988</v>
       </c>
       <c r="R32" t="n">
-        <v>6736568</v>
+        <v>6736721</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3781,7 +3790,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -3791,7 +3800,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3800,72 +3809,64 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130983060</v>
+        <v>130983618</v>
       </c>
       <c r="B33" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>570988</v>
+        <v>570808</v>
       </c>
       <c r="R33" t="n">
-        <v>6736721</v>
+        <v>6736568</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3897,7 +3898,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -3907,7 +3908,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3916,19 +3917,18 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130983070</v>
+        <v>130983617</v>
       </c>
       <c r="B38" t="n">
         <v>79243</v>
@@ -4381,14 +4381,14 @@
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>570811</v>
+        <v>570789</v>
       </c>
       <c r="R38" t="n">
-        <v>6736543</v>
+        <v>6736672</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4439,26 +4439,25 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130983617</v>
+        <v>130983070</v>
       </c>
       <c r="B39" t="n">
         <v>79243</v>
@@ -4489,14 +4488,14 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>570789</v>
+        <v>570811</v>
       </c>
       <c r="R39" t="n">
-        <v>6736672</v>
+        <v>6736543</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4528,7 +4527,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4538,7 +4537,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4547,18 +4546,19 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130983616</v>
+        <v>130983607</v>
       </c>
       <c r="B52" t="n">
         <v>79243</v>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>570925</v>
+        <v>571351</v>
       </c>
       <c r="R52" t="n">
-        <v>6736674</v>
+        <v>6736798</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -5947,7 +5947,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -5974,7 +5974,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130983607</v>
+        <v>130983616</v>
       </c>
       <c r="B53" t="n">
         <v>79243</v>
@@ -6009,10 +6009,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>571351</v>
+        <v>570925</v>
       </c>
       <c r="R53" t="n">
-        <v>6736798</v>
+        <v>6736674</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6305,7 +6305,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130979100</v>
+        <v>130979094</v>
       </c>
       <c r="B56" t="n">
         <v>79243</v>
@@ -6340,10 +6340,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>571473</v>
+        <v>571278</v>
       </c>
       <c r="R56" t="n">
-        <v>6736490</v>
+        <v>6736783</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -6402,10 +6402,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130979104</v>
+        <v>130979086</v>
       </c>
       <c r="B57" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6413,21 +6413,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>571129</v>
+        <v>571361</v>
       </c>
       <c r="R57" t="n">
-        <v>6736573</v>
+        <v>6736509</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -6481,7 +6481,6 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -6500,7 +6499,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130979094</v>
+        <v>130979100</v>
       </c>
       <c r="B58" t="n">
         <v>79243</v>
@@ -6535,10 +6534,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>571278</v>
+        <v>571473</v>
       </c>
       <c r="R58" t="n">
-        <v>6736783</v>
+        <v>6736490</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -6597,10 +6596,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130979086</v>
+        <v>130979104</v>
       </c>
       <c r="B59" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6608,21 +6607,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6632,10 +6631,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>571361</v>
+        <v>571129</v>
       </c>
       <c r="R59" t="n">
-        <v>6736509</v>
+        <v>6736573</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
@@ -6676,6 +6675,7 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
+      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 2044-2026 artfynd.xlsx
+++ b/artfynd/A 2044-2026 artfynd.xlsx
@@ -1410,7 +1410,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130872710</v>
+        <v>130872707</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>570585</v>
+        <v>570828</v>
       </c>
       <c r="R9" t="n">
-        <v>6736756</v>
+        <v>6736602</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130872707</v>
+        <v>130872710</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>570828</v>
+        <v>570585</v>
       </c>
       <c r="R10" t="n">
-        <v>6736602</v>
+        <v>6736756</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130872718</v>
+        <v>130872715</v>
       </c>
       <c r="B15" t="n">
         <v>79243</v>
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>571142</v>
+        <v>571193</v>
       </c>
       <c r="R15" t="n">
-        <v>6736599</v>
+        <v>6736684</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130872714</v>
+        <v>130872718</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>570912</v>
+        <v>571142</v>
       </c>
       <c r="R16" t="n">
-        <v>6736673</v>
+        <v>6736599</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130872715</v>
+        <v>130872714</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2221,10 +2221,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>571193</v>
+        <v>570912</v>
       </c>
       <c r="R17" t="n">
-        <v>6736684</v>
+        <v>6736673</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -3711,54 +3711,45 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130983060</v>
+        <v>130983618</v>
       </c>
       <c r="B32" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>570988</v>
+        <v>570808</v>
       </c>
       <c r="R32" t="n">
-        <v>6736721</v>
+        <v>6736568</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3790,7 +3781,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -3800,7 +3791,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3809,64 +3800,72 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130983618</v>
+        <v>130983060</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>570808</v>
+        <v>570988</v>
       </c>
       <c r="R33" t="n">
-        <v>6736568</v>
+        <v>6736721</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3898,7 +3897,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -3908,7 +3907,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3917,18 +3916,19 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -4140,10 +4140,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130979080</v>
+        <v>130983068</v>
       </c>
       <c r="B36" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4151,21 +4151,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4175,13 +4175,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>571221</v>
+        <v>570849</v>
       </c>
       <c r="R36" t="n">
-        <v>6736517</v>
+        <v>6736706</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4208,14 +4208,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Äldre ringhack</t>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4224,28 +4229,29 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130983068</v>
+        <v>130979080</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4253,21 +4259,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4277,13 +4283,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>570849</v>
+        <v>571221</v>
       </c>
       <c r="R37" t="n">
-        <v>6736706</v>
+        <v>6736517</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4310,19 +4316,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>09:25</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>09:25</t>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4331,26 +4332,25 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130983617</v>
+        <v>130983070</v>
       </c>
       <c r="B38" t="n">
         <v>79243</v>
@@ -4381,14 +4381,14 @@
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>570789</v>
+        <v>570811</v>
       </c>
       <c r="R38" t="n">
-        <v>6736672</v>
+        <v>6736543</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4439,25 +4439,26 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130983070</v>
+        <v>130983617</v>
       </c>
       <c r="B39" t="n">
         <v>79243</v>
@@ -4488,14 +4489,14 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>570811</v>
+        <v>570789</v>
       </c>
       <c r="R39" t="n">
-        <v>6736543</v>
+        <v>6736672</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4527,7 +4528,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4537,7 +4538,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4546,19 +4547,18 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130983614</v>
+        <v>130983065</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4905,34 +4905,30 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>571012</v>
+        <v>570827</v>
       </c>
       <c r="R43" t="n">
-        <v>6736611</v>
+        <v>6736626</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4964,7 +4960,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -4974,37 +4970,38 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130983065</v>
+        <v>130983614</v>
       </c>
       <c r="B44" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5012,30 +5009,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>570827</v>
+        <v>571012</v>
       </c>
       <c r="R44" t="n">
-        <v>6736626</v>
+        <v>6736611</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5067,7 +5068,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5077,28 +5078,27 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF44" t="inlineStr"/>
+        <v>0</v>
+      </c>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
@@ -5420,10 +5420,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130983067</v>
+        <v>130983056</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5431,34 +5431,42 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>571052</v>
+        <v>570823</v>
       </c>
       <c r="R48" t="n">
-        <v>6736642</v>
+        <v>6736624</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5490,7 +5498,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5500,16 +5508,15 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF48" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -5528,10 +5535,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130983056</v>
+        <v>130983067</v>
       </c>
       <c r="B49" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5539,42 +5546,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>570823</v>
+        <v>571052</v>
       </c>
       <c r="R49" t="n">
-        <v>6736624</v>
+        <v>6736642</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5606,7 +5605,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5616,15 +5615,16 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130983607</v>
+        <v>130983616</v>
       </c>
       <c r="B52" t="n">
         <v>79243</v>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>571351</v>
+        <v>570925</v>
       </c>
       <c r="R52" t="n">
-        <v>6736798</v>
+        <v>6736674</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -5947,7 +5947,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -5974,7 +5974,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130983616</v>
+        <v>130983607</v>
       </c>
       <c r="B53" t="n">
         <v>79243</v>
@@ -6009,10 +6009,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>570925</v>
+        <v>571351</v>
       </c>
       <c r="R53" t="n">
-        <v>6736674</v>
+        <v>6736798</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6081,54 +6081,45 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130983062</v>
+        <v>130983611</v>
       </c>
       <c r="B54" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>571286</v>
+        <v>571283</v>
       </c>
       <c r="R54" t="n">
-        <v>6736563</v>
+        <v>6736557</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6160,7 +6151,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6170,7 +6161,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6179,64 +6170,72 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130983611</v>
+        <v>130983062</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>571283</v>
+        <v>571286</v>
       </c>
       <c r="R55" t="n">
-        <v>6736557</v>
+        <v>6736563</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6268,7 +6267,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6278,7 +6277,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6287,28 +6286,29 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130979094</v>
+        <v>130979086</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6316,21 +6316,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6340,10 +6340,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>571278</v>
+        <v>571361</v>
       </c>
       <c r="R56" t="n">
-        <v>6736783</v>
+        <v>6736509</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -6402,10 +6402,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130979086</v>
+        <v>130979100</v>
       </c>
       <c r="B57" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6413,21 +6413,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>571361</v>
+        <v>571473</v>
       </c>
       <c r="R57" t="n">
-        <v>6736509</v>
+        <v>6736490</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130979100</v>
+        <v>130979104</v>
       </c>
       <c r="B58" t="n">
         <v>79243</v>
@@ -6534,10 +6534,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>571473</v>
+        <v>571129</v>
       </c>
       <c r="R58" t="n">
-        <v>6736490</v>
+        <v>6736573</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -6578,6 +6578,7 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -6596,7 +6597,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130979104</v>
+        <v>130979094</v>
       </c>
       <c r="B59" t="n">
         <v>79243</v>
@@ -6631,10 +6632,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>571129</v>
+        <v>571278</v>
       </c>
       <c r="R59" t="n">
-        <v>6736573</v>
+        <v>6736783</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
@@ -6675,7 +6676,6 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 2044-2026 artfynd.xlsx
+++ b/artfynd/A 2044-2026 artfynd.xlsx
@@ -3711,45 +3711,54 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130983618</v>
+        <v>130983060</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>570808</v>
+        <v>570988</v>
       </c>
       <c r="R32" t="n">
-        <v>6736568</v>
+        <v>6736721</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3781,7 +3790,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -3791,7 +3800,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3800,72 +3809,64 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130983060</v>
+        <v>130983618</v>
       </c>
       <c r="B33" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>570988</v>
+        <v>570808</v>
       </c>
       <c r="R33" t="n">
-        <v>6736721</v>
+        <v>6736568</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3897,7 +3898,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -3907,7 +3908,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3916,19 +3917,18 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -4458,10 +4458,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130983617</v>
+        <v>130983600</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4469,34 +4469,42 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>570789</v>
+        <v>571022</v>
       </c>
       <c r="R39" t="n">
-        <v>6736672</v>
+        <v>6736648</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4528,7 +4536,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4538,14 +4546,14 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG39" t="b">
         <v>0</v>
@@ -4565,10 +4573,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130983600</v>
+        <v>130983617</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4576,42 +4584,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>571022</v>
+        <v>570789</v>
       </c>
       <c r="R40" t="n">
-        <v>6736648</v>
+        <v>6736672</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4653,14 +4653,14 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="b">
         <v>0</v>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130983065</v>
+        <v>130983614</v>
       </c>
       <c r="B43" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4905,30 +4905,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>570827</v>
+        <v>571012</v>
       </c>
       <c r="R43" t="n">
-        <v>6736626</v>
+        <v>6736611</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4960,7 +4964,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -4970,38 +4974,37 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF43" t="inlineStr"/>
+        <v>0</v>
+      </c>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130983614</v>
+        <v>130983065</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5009,34 +5012,30 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>571012</v>
+        <v>570827</v>
       </c>
       <c r="R44" t="n">
-        <v>6736611</v>
+        <v>6736626</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5068,7 +5067,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5078,27 +5077,28 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
@@ -5420,10 +5420,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130983056</v>
+        <v>130983067</v>
       </c>
       <c r="B48" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5431,42 +5431,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>570823</v>
+        <v>571052</v>
       </c>
       <c r="R48" t="n">
-        <v>6736624</v>
+        <v>6736642</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5498,7 +5490,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5508,15 +5500,16 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -5535,10 +5528,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130983067</v>
+        <v>130983056</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5546,34 +5539,42 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>571052</v>
+        <v>570823</v>
       </c>
       <c r="R49" t="n">
-        <v>6736642</v>
+        <v>6736624</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5605,7 +5606,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5615,16 +5616,15 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF49" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -5760,7 +5760,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130983612</v>
+        <v>130983616</v>
       </c>
       <c r="B51" t="n">
         <v>79243</v>
@@ -5795,10 +5795,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>571254</v>
+        <v>570925</v>
       </c>
       <c r="R51" t="n">
-        <v>6736555</v>
+        <v>6736674</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5867,7 +5867,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130983616</v>
+        <v>130983607</v>
       </c>
       <c r="B52" t="n">
         <v>79243</v>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>570925</v>
+        <v>571351</v>
       </c>
       <c r="R52" t="n">
-        <v>6736674</v>
+        <v>6736798</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -5947,7 +5947,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -5974,7 +5974,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130983607</v>
+        <v>130983612</v>
       </c>
       <c r="B53" t="n">
         <v>79243</v>
@@ -6009,10 +6009,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>571351</v>
+        <v>571254</v>
       </c>
       <c r="R53" t="n">
-        <v>6736798</v>
+        <v>6736555</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6305,10 +6305,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130979086</v>
+        <v>130979100</v>
       </c>
       <c r="B56" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6316,21 +6316,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6340,10 +6340,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>571361</v>
+        <v>571473</v>
       </c>
       <c r="R56" t="n">
-        <v>6736509</v>
+        <v>6736490</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130979100</v>
+        <v>130979104</v>
       </c>
       <c r="B57" t="n">
         <v>79243</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>571473</v>
+        <v>571129</v>
       </c>
       <c r="R57" t="n">
-        <v>6736490</v>
+        <v>6736573</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -6481,6 +6481,7 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -6499,7 +6500,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130979104</v>
+        <v>130979094</v>
       </c>
       <c r="B58" t="n">
         <v>79243</v>
@@ -6534,10 +6535,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>571129</v>
+        <v>571278</v>
       </c>
       <c r="R58" t="n">
-        <v>6736573</v>
+        <v>6736783</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -6578,7 +6579,6 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -6597,10 +6597,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130979094</v>
+        <v>130979086</v>
       </c>
       <c r="B59" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6608,21 +6608,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>571278</v>
+        <v>571361</v>
       </c>
       <c r="R59" t="n">
-        <v>6736783</v>
+        <v>6736509</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>

--- a/artfynd/A 2044-2026 artfynd.xlsx
+++ b/artfynd/A 2044-2026 artfynd.xlsx
@@ -1410,7 +1410,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130872707</v>
+        <v>130872710</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>570828</v>
+        <v>570585</v>
       </c>
       <c r="R9" t="n">
-        <v>6736602</v>
+        <v>6736756</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130872710</v>
+        <v>130872707</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>570585</v>
+        <v>570828</v>
       </c>
       <c r="R10" t="n">
-        <v>6736756</v>
+        <v>6736602</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1701,10 +1701,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130872698</v>
+        <v>130872717</v>
       </c>
       <c r="B12" t="n">
-        <v>79000</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1712,21 +1712,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>570821</v>
+        <v>571254</v>
       </c>
       <c r="R12" t="n">
-        <v>6736787</v>
+        <v>6736578</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130872717</v>
+        <v>130872698</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>79000</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1809,21 +1809,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>571254</v>
+        <v>570821</v>
       </c>
       <c r="R13" t="n">
-        <v>6736578</v>
+        <v>6736787</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130872718</v>
+        <v>130872714</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>571142</v>
+        <v>570912</v>
       </c>
       <c r="R16" t="n">
-        <v>6736599</v>
+        <v>6736673</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130872714</v>
+        <v>130872718</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2221,10 +2221,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>570912</v>
+        <v>571142</v>
       </c>
       <c r="R17" t="n">
-        <v>6736673</v>
+        <v>6736599</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130983077</v>
+        <v>130979089</v>
       </c>
       <c r="B30" t="n">
-        <v>5177</v>
+        <v>57076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3503,46 +3503,37 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100526</v>
+        <v>102613</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>571069</v>
+        <v>570598</v>
       </c>
       <c r="R30" t="n">
-        <v>6736680</v>
+        <v>6736697</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3569,19 +3560,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>11:22</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>11:22</t>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Överflygande</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3590,29 +3576,28 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130979089</v>
+        <v>130983077</v>
       </c>
       <c r="B31" t="n">
-        <v>57076</v>
+        <v>5177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3620,37 +3605,46 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>102613</v>
+        <v>100526</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>570598</v>
+        <v>571069</v>
       </c>
       <c r="R31" t="n">
-        <v>6736697</v>
+        <v>6736680</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3677,14 +3671,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>11:22</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Överflygande</t>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3693,72 +3692,64 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130983060</v>
+        <v>130983618</v>
       </c>
       <c r="B32" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>570988</v>
+        <v>570808</v>
       </c>
       <c r="R32" t="n">
-        <v>6736721</v>
+        <v>6736568</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3790,7 +3781,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -3800,7 +3791,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3809,64 +3800,72 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130983618</v>
+        <v>130983060</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>570808</v>
+        <v>570988</v>
       </c>
       <c r="R33" t="n">
-        <v>6736568</v>
+        <v>6736721</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3898,7 +3897,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -3908,7 +3907,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3917,18 +3916,19 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -4140,10 +4140,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130983068</v>
+        <v>130979080</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4151,21 +4151,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4175,13 +4175,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>570849</v>
+        <v>571221</v>
       </c>
       <c r="R36" t="n">
-        <v>6736706</v>
+        <v>6736517</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4208,19 +4208,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>09:25</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>09:25</t>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4229,29 +4224,28 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130979080</v>
+        <v>130983068</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4259,21 +4253,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4283,13 +4277,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>571221</v>
+        <v>570849</v>
       </c>
       <c r="R37" t="n">
-        <v>6736517</v>
+        <v>6736706</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4316,14 +4310,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Äldre ringhack</t>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4332,18 +4331,19 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
@@ -4458,10 +4458,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130983600</v>
+        <v>130983617</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4469,42 +4469,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>571022</v>
+        <v>570789</v>
       </c>
       <c r="R39" t="n">
-        <v>6736648</v>
+        <v>6736672</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4536,7 +4528,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4546,14 +4538,14 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="b">
         <v>0</v>
@@ -4573,10 +4565,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130983617</v>
+        <v>130983600</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4584,34 +4576,42 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>570789</v>
+        <v>571022</v>
       </c>
       <c r="R40" t="n">
-        <v>6736672</v>
+        <v>6736648</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4653,14 +4653,14 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG40" t="b">
         <v>0</v>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130983614</v>
+        <v>130983065</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4905,34 +4905,30 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>571012</v>
+        <v>570827</v>
       </c>
       <c r="R43" t="n">
-        <v>6736611</v>
+        <v>6736626</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4964,7 +4960,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -4974,37 +4970,38 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130983065</v>
+        <v>130983614</v>
       </c>
       <c r="B44" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5012,30 +5009,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>570827</v>
+        <v>571012</v>
       </c>
       <c r="R44" t="n">
-        <v>6736626</v>
+        <v>6736611</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5067,7 +5068,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5077,28 +5078,27 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF44" t="inlineStr"/>
+        <v>0</v>
+      </c>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
@@ -5760,7 +5760,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130983616</v>
+        <v>130983612</v>
       </c>
       <c r="B51" t="n">
         <v>79243</v>
@@ -5795,10 +5795,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>570925</v>
+        <v>571254</v>
       </c>
       <c r="R51" t="n">
-        <v>6736674</v>
+        <v>6736555</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5867,7 +5867,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130983607</v>
+        <v>130983616</v>
       </c>
       <c r="B52" t="n">
         <v>79243</v>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>571351</v>
+        <v>570925</v>
       </c>
       <c r="R52" t="n">
-        <v>6736798</v>
+        <v>6736674</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -5947,7 +5947,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -5974,7 +5974,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130983612</v>
+        <v>130983607</v>
       </c>
       <c r="B53" t="n">
         <v>79243</v>
@@ -6009,10 +6009,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>571254</v>
+        <v>571351</v>
       </c>
       <c r="R53" t="n">
-        <v>6736555</v>
+        <v>6736798</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6305,10 +6305,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130979100</v>
+        <v>130979086</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6316,21 +6316,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6340,10 +6340,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>571473</v>
+        <v>571361</v>
       </c>
       <c r="R56" t="n">
-        <v>6736490</v>
+        <v>6736509</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130979104</v>
+        <v>130979100</v>
       </c>
       <c r="B57" t="n">
         <v>79243</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>571129</v>
+        <v>571473</v>
       </c>
       <c r="R57" t="n">
-        <v>6736573</v>
+        <v>6736490</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -6481,7 +6481,6 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -6500,7 +6499,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130979094</v>
+        <v>130979104</v>
       </c>
       <c r="B58" t="n">
         <v>79243</v>
@@ -6535,10 +6534,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>571278</v>
+        <v>571129</v>
       </c>
       <c r="R58" t="n">
-        <v>6736783</v>
+        <v>6736573</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -6579,6 +6578,7 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -6597,10 +6597,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130979086</v>
+        <v>130979094</v>
       </c>
       <c r="B59" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6608,21 +6608,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>571361</v>
+        <v>571278</v>
       </c>
       <c r="R59" t="n">
-        <v>6736509</v>
+        <v>6736783</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>

--- a/artfynd/A 2044-2026 artfynd.xlsx
+++ b/artfynd/A 2044-2026 artfynd.xlsx
@@ -1410,7 +1410,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130872710</v>
+        <v>130872707</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>570585</v>
+        <v>570828</v>
       </c>
       <c r="R9" t="n">
-        <v>6736756</v>
+        <v>6736602</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130872707</v>
+        <v>130872710</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>570828</v>
+        <v>570585</v>
       </c>
       <c r="R10" t="n">
-        <v>6736602</v>
+        <v>6736756</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130872715</v>
+        <v>130872718</v>
       </c>
       <c r="B15" t="n">
         <v>79243</v>
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>571193</v>
+        <v>571142</v>
       </c>
       <c r="R15" t="n">
-        <v>6736684</v>
+        <v>6736599</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130872718</v>
+        <v>130872715</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2221,10 +2221,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>571142</v>
+        <v>571193</v>
       </c>
       <c r="R17" t="n">
-        <v>6736599</v>
+        <v>6736684</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2574,32 +2574,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130872725</v>
+        <v>130872716</v>
       </c>
       <c r="B21" t="n">
-        <v>5177</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2609,10 +2609,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>570869</v>
+        <v>570988</v>
       </c>
       <c r="R21" t="n">
-        <v>6736590</v>
+        <v>6736647</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2671,32 +2671,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130872716</v>
+        <v>130872725</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>5177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>570988</v>
+        <v>570869</v>
       </c>
       <c r="R22" t="n">
-        <v>6736647</v>
+        <v>6736590</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130983063</v>
+        <v>130979083</v>
       </c>
       <c r="B25" t="n">
-        <v>8451</v>
+        <v>57073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2983,46 +2983,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>106545</v>
+        <v>100138</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>570956</v>
+        <v>570745</v>
       </c>
       <c r="R25" t="n">
-        <v>6736657</v>
+        <v>6736794</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3049,19 +3040,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>09:32</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>09:32</t>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Färsk spillning</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3070,29 +3056,28 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130979083</v>
+        <v>130983063</v>
       </c>
       <c r="B26" t="n">
-        <v>57073</v>
+        <v>8451</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3100,37 +3085,46 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100138</v>
+        <v>106545</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>570745</v>
+        <v>570956</v>
       </c>
       <c r="R26" t="n">
-        <v>6736794</v>
+        <v>6736657</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3157,14 +3151,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>09:32</t>
+        </is>
+      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Färsk spillning</t>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3173,18 +3172,19 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130979089</v>
+        <v>130983077</v>
       </c>
       <c r="B30" t="n">
-        <v>57076</v>
+        <v>5177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3503,37 +3503,46 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>102613</v>
+        <v>100526</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>570598</v>
+        <v>571069</v>
       </c>
       <c r="R30" t="n">
-        <v>6736697</v>
+        <v>6736680</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3560,14 +3569,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>11:22</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Överflygande</t>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3576,28 +3590,29 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130983077</v>
+        <v>130979089</v>
       </c>
       <c r="B31" t="n">
-        <v>5177</v>
+        <v>57076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3605,46 +3620,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100526</v>
+        <v>102613</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>571069</v>
+        <v>570598</v>
       </c>
       <c r="R31" t="n">
-        <v>6736680</v>
+        <v>6736697</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3671,19 +3677,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>11:22</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>11:22</t>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Överflygande</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3692,19 +3693,18 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
@@ -4140,10 +4140,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130979080</v>
+        <v>130983068</v>
       </c>
       <c r="B36" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4151,21 +4151,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4175,13 +4175,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>571221</v>
+        <v>570849</v>
       </c>
       <c r="R36" t="n">
-        <v>6736517</v>
+        <v>6736706</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4208,14 +4208,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Äldre ringhack</t>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4224,28 +4229,29 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130983068</v>
+        <v>130979080</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4253,21 +4259,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4277,13 +4283,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>570849</v>
+        <v>571221</v>
       </c>
       <c r="R37" t="n">
-        <v>6736706</v>
+        <v>6736517</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4310,19 +4316,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>09:25</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>09:25</t>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4331,29 +4332,28 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130983070</v>
+        <v>130983600</v>
       </c>
       <c r="B38" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4361,34 +4361,42 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>570811</v>
+        <v>571022</v>
       </c>
       <c r="R38" t="n">
-        <v>6736543</v>
+        <v>6736648</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4420,7 +4428,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4430,35 +4438,34 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF38" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130983617</v>
+        <v>130983070</v>
       </c>
       <c r="B39" t="n">
         <v>79243</v>
@@ -4489,14 +4496,14 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>570789</v>
+        <v>570811</v>
       </c>
       <c r="R39" t="n">
-        <v>6736672</v>
+        <v>6736543</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4528,7 +4535,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4538,7 +4545,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4547,28 +4554,29 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130983600</v>
+        <v>130983617</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4576,42 +4584,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>571022</v>
+        <v>570789</v>
       </c>
       <c r="R40" t="n">
-        <v>6736648</v>
+        <v>6736672</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4653,14 +4653,14 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="b">
         <v>0</v>
@@ -5420,45 +5420,54 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130983067</v>
+        <v>130983061</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>571052</v>
+        <v>571287</v>
       </c>
       <c r="R48" t="n">
-        <v>6736642</v>
+        <v>6736565</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5490,7 +5499,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5500,7 +5509,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5528,10 +5537,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130983056</v>
+        <v>130983067</v>
       </c>
       <c r="B49" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5539,42 +5548,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>570823</v>
+        <v>571052</v>
       </c>
       <c r="R49" t="n">
-        <v>6736624</v>
+        <v>6736642</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5606,7 +5607,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5616,15 +5617,16 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -5643,41 +5645,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130983061</v>
+        <v>130983056</v>
       </c>
       <c r="B50" t="n">
-        <v>8451</v>
+        <v>57884</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>106545</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -5687,10 +5688,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>571287</v>
+        <v>570823</v>
       </c>
       <c r="R50" t="n">
-        <v>6736565</v>
+        <v>6736624</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5722,7 +5723,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5732,16 +5733,15 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF50" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6305,10 +6305,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130979086</v>
+        <v>130979100</v>
       </c>
       <c r="B56" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6316,21 +6316,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6340,10 +6340,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>571361</v>
+        <v>571473</v>
       </c>
       <c r="R56" t="n">
-        <v>6736509</v>
+        <v>6736490</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130979100</v>
+        <v>130979104</v>
       </c>
       <c r="B57" t="n">
         <v>79243</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>571473</v>
+        <v>571129</v>
       </c>
       <c r="R57" t="n">
-        <v>6736490</v>
+        <v>6736573</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -6481,6 +6481,7 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -6499,7 +6500,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130979104</v>
+        <v>130979094</v>
       </c>
       <c r="B58" t="n">
         <v>79243</v>
@@ -6534,10 +6535,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>571129</v>
+        <v>571278</v>
       </c>
       <c r="R58" t="n">
-        <v>6736573</v>
+        <v>6736783</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -6578,7 +6579,6 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -6597,10 +6597,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130979094</v>
+        <v>130979086</v>
       </c>
       <c r="B59" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6608,21 +6608,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>571278</v>
+        <v>571361</v>
       </c>
       <c r="R59" t="n">
-        <v>6736783</v>
+        <v>6736509</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>

--- a/artfynd/A 2044-2026 artfynd.xlsx
+++ b/artfynd/A 2044-2026 artfynd.xlsx
@@ -1025,7 +1025,7 @@
         <v>130872700</v>
       </c>
       <c r="B5" t="n">
-        <v>79000</v>
+        <v>79001</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>130872713</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>130872699</v>
       </c>
       <c r="B8" t="n">
-        <v>79000</v>
+        <v>79001</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>130872707</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>130872710</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>130872720</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1701,10 +1701,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130872717</v>
+        <v>130872695</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>79002</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1712,21 +1712,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>571254</v>
+        <v>570816</v>
       </c>
       <c r="R12" t="n">
-        <v>6736578</v>
+        <v>6736802</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130872698</v>
+        <v>130872717</v>
       </c>
       <c r="B13" t="n">
-        <v>79000</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1809,21 +1809,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>570821</v>
+        <v>571254</v>
       </c>
       <c r="R13" t="n">
-        <v>6736787</v>
+        <v>6736578</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130872695</v>
+        <v>130872698</v>
       </c>
       <c r="B14" t="n">
         <v>79001</v>
@@ -1906,21 +1906,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>570816</v>
+        <v>570821</v>
       </c>
       <c r="R14" t="n">
-        <v>6736802</v>
+        <v>6736787</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1995,7 +1995,7 @@
         <v>130872718</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130872714</v>
+        <v>130872715</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>570912</v>
+        <v>571193</v>
       </c>
       <c r="R16" t="n">
-        <v>6736673</v>
+        <v>6736684</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130872715</v>
+        <v>130872714</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2221,10 +2221,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>571193</v>
+        <v>570912</v>
       </c>
       <c r="R17" t="n">
-        <v>6736684</v>
+        <v>6736673</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2286,7 +2286,7 @@
         <v>130872709</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>130872711</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>130872696</v>
       </c>
       <c r="B20" t="n">
-        <v>79001</v>
+        <v>79002</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>130872716</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>130983610</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>130979096</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>130983609</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3298,10 +3298,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130979095</v>
+        <v>130979098</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3333,10 +3333,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>571648</v>
+        <v>571475</v>
       </c>
       <c r="R28" t="n">
-        <v>6736781</v>
+        <v>6736616</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3395,10 +3395,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130979098</v>
+        <v>130979095</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3430,10 +3430,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>571475</v>
+        <v>571648</v>
       </c>
       <c r="R29" t="n">
-        <v>6736616</v>
+        <v>6736781</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130983077</v>
+        <v>130979089</v>
       </c>
       <c r="B30" t="n">
-        <v>5177</v>
+        <v>57076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3503,46 +3503,37 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100526</v>
+        <v>102613</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>571069</v>
+        <v>570598</v>
       </c>
       <c r="R30" t="n">
-        <v>6736680</v>
+        <v>6736697</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3569,19 +3560,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>11:22</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>11:22</t>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Överflygande</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3590,29 +3576,28 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130979089</v>
+        <v>130983077</v>
       </c>
       <c r="B31" t="n">
-        <v>57076</v>
+        <v>5177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3620,37 +3605,46 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>102613</v>
+        <v>100526</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>570598</v>
+        <v>571069</v>
       </c>
       <c r="R31" t="n">
-        <v>6736697</v>
+        <v>6736680</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3677,14 +3671,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>11:22</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Överflygande</t>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3693,63 +3692,73 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130983618</v>
+        <v>130983060</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>570808</v>
+        <v>570988</v>
       </c>
       <c r="R32" t="n">
-        <v>6736568</v>
+        <v>6736721</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3781,7 +3790,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -3791,7 +3800,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3800,72 +3809,64 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130983060</v>
+        <v>130983618</v>
       </c>
       <c r="B33" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>570988</v>
+        <v>570808</v>
       </c>
       <c r="R33" t="n">
-        <v>6736721</v>
+        <v>6736568</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3897,7 +3898,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -3907,7 +3908,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3916,19 +3917,18 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -3938,7 +3938,7 @@
         <v>130979099</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>130983069</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>130983068</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4350,10 +4350,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130983600</v>
+        <v>130983070</v>
       </c>
       <c r="B38" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4361,42 +4361,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>571022</v>
+        <v>570811</v>
       </c>
       <c r="R38" t="n">
-        <v>6736648</v>
+        <v>6736543</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4428,7 +4420,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4438,37 +4430,38 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130983070</v>
+        <v>130983617</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4496,14 +4489,14 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>570811</v>
+        <v>570789</v>
       </c>
       <c r="R39" t="n">
-        <v>6736543</v>
+        <v>6736672</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4535,7 +4528,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4545,7 +4538,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4554,29 +4547,28 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130983617</v>
+        <v>130983600</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4584,34 +4576,42 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>570789</v>
+        <v>571022</v>
       </c>
       <c r="R40" t="n">
-        <v>6736672</v>
+        <v>6736648</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4653,14 +4653,14 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG40" t="b">
         <v>0</v>
@@ -4800,7 +4800,7 @@
         <v>130979090</v>
       </c>
       <c r="B42" t="n">
-        <v>79000</v>
+        <v>79001</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130983065</v>
+        <v>130983614</v>
       </c>
       <c r="B43" t="n">
-        <v>91828</v>
+        <v>79244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4905,30 +4905,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>570827</v>
+        <v>571012</v>
       </c>
       <c r="R43" t="n">
-        <v>6736626</v>
+        <v>6736611</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4960,7 +4964,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -4970,38 +4974,37 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF43" t="inlineStr"/>
+        <v>0</v>
+      </c>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130983614</v>
+        <v>130983065</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5009,34 +5012,30 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>571012</v>
+        <v>570827</v>
       </c>
       <c r="R44" t="n">
-        <v>6736611</v>
+        <v>6736626</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5068,7 +5067,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5078,27 +5077,28 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
@@ -5108,7 +5108,7 @@
         <v>130983615</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>130979085</v>
       </c>
       <c r="B46" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5420,54 +5420,45 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130983061</v>
+        <v>130983067</v>
       </c>
       <c r="B48" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>571287</v>
+        <v>571052</v>
       </c>
       <c r="R48" t="n">
-        <v>6736565</v>
+        <v>6736642</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5499,7 +5490,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5509,7 +5500,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5537,10 +5528,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130983067</v>
+        <v>130983056</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5548,34 +5539,42 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>571052</v>
+        <v>570823</v>
       </c>
       <c r="R49" t="n">
-        <v>6736642</v>
+        <v>6736624</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5607,7 +5606,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5617,16 +5616,15 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF49" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -5645,40 +5643,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130983056</v>
+        <v>130983061</v>
       </c>
       <c r="B50" t="n">
-        <v>57884</v>
+        <v>8451</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>106545</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -5688,10 +5687,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>570823</v>
+        <v>571287</v>
       </c>
       <c r="R50" t="n">
-        <v>6736624</v>
+        <v>6736565</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5723,7 +5722,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5733,15 +5732,16 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -5760,10 +5760,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130983612</v>
+        <v>130983616</v>
       </c>
       <c r="B51" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5795,10 +5795,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>571254</v>
+        <v>570925</v>
       </c>
       <c r="R51" t="n">
-        <v>6736555</v>
+        <v>6736674</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5867,10 +5867,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130983616</v>
+        <v>130983607</v>
       </c>
       <c r="B52" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>570925</v>
+        <v>571351</v>
       </c>
       <c r="R52" t="n">
-        <v>6736674</v>
+        <v>6736798</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -5947,7 +5947,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -5974,10 +5974,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130983607</v>
+        <v>130983612</v>
       </c>
       <c r="B53" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6009,10 +6009,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>571351</v>
+        <v>571254</v>
       </c>
       <c r="R53" t="n">
-        <v>6736798</v>
+        <v>6736555</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6081,45 +6081,54 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130983611</v>
+        <v>130983062</v>
       </c>
       <c r="B54" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>571283</v>
+        <v>571286</v>
       </c>
       <c r="R54" t="n">
-        <v>6736557</v>
+        <v>6736563</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6151,7 +6160,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6161,7 +6170,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6170,72 +6179,64 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130983062</v>
+        <v>130983611</v>
       </c>
       <c r="B55" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>571286</v>
+        <v>571283</v>
       </c>
       <c r="R55" t="n">
-        <v>6736563</v>
+        <v>6736557</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6267,7 +6268,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6277,7 +6278,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6286,19 +6287,18 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
@@ -6308,7 +6308,7 @@
         <v>130979100</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>130979104</v>
       </c>
       <c r="B57" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>130979094</v>
       </c>
       <c r="B58" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>130979086</v>
       </c>
       <c r="B59" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>

--- a/artfynd/A 2044-2026 artfynd.xlsx
+++ b/artfynd/A 2044-2026 artfynd.xlsx
@@ -1119,32 +1119,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130872713</v>
+        <v>130872697</v>
       </c>
       <c r="B6" t="n">
-        <v>79244</v>
+        <v>8451</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>570831</v>
+        <v>570626</v>
       </c>
       <c r="R6" t="n">
-        <v>6736787</v>
+        <v>6736614</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1216,32 +1216,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130872697</v>
+        <v>130872713</v>
       </c>
       <c r="B7" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1251,10 +1251,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>570626</v>
+        <v>570831</v>
       </c>
       <c r="R7" t="n">
-        <v>6736614</v>
+        <v>6736787</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1701,10 +1701,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130872695</v>
+        <v>130872717</v>
       </c>
       <c r="B12" t="n">
-        <v>79002</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1712,21 +1712,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>570816</v>
+        <v>571254</v>
       </c>
       <c r="R12" t="n">
-        <v>6736802</v>
+        <v>6736578</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130872717</v>
+        <v>130872695</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>79002</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1809,21 +1809,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>571254</v>
+        <v>570816</v>
       </c>
       <c r="R13" t="n">
-        <v>6736578</v>
+        <v>6736802</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130872718</v>
+        <v>130872715</v>
       </c>
       <c r="B15" t="n">
         <v>79244</v>
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>571142</v>
+        <v>571193</v>
       </c>
       <c r="R15" t="n">
-        <v>6736599</v>
+        <v>6736684</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130872715</v>
+        <v>130872718</v>
       </c>
       <c r="B16" t="n">
         <v>79244</v>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>571193</v>
+        <v>571142</v>
       </c>
       <c r="R16" t="n">
-        <v>6736684</v>
+        <v>6736599</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2574,32 +2574,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130872716</v>
+        <v>130872725</v>
       </c>
       <c r="B21" t="n">
-        <v>79244</v>
+        <v>5177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2609,10 +2609,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>570988</v>
+        <v>570869</v>
       </c>
       <c r="R21" t="n">
-        <v>6736647</v>
+        <v>6736590</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2671,32 +2671,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130872725</v>
+        <v>130872716</v>
       </c>
       <c r="B22" t="n">
-        <v>5177</v>
+        <v>79244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>570869</v>
+        <v>570988</v>
       </c>
       <c r="R22" t="n">
-        <v>6736590</v>
+        <v>6736647</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130979083</v>
+        <v>130983063</v>
       </c>
       <c r="B25" t="n">
-        <v>57073</v>
+        <v>8451</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2983,37 +2983,46 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100138</v>
+        <v>106545</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>570745</v>
+        <v>570956</v>
       </c>
       <c r="R25" t="n">
-        <v>6736794</v>
+        <v>6736657</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3040,14 +3049,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>09:32</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Färsk spillning</t>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3056,28 +3070,29 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130983063</v>
+        <v>130979083</v>
       </c>
       <c r="B26" t="n">
-        <v>8451</v>
+        <v>57073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3085,46 +3100,37 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>106545</v>
+        <v>100138</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>570956</v>
+        <v>570745</v>
       </c>
       <c r="R26" t="n">
-        <v>6736657</v>
+        <v>6736794</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3151,19 +3157,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>09:32</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>09:32</t>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Färsk spillning</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3172,19 +3173,18 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130979098</v>
+        <v>130979095</v>
       </c>
       <c r="B28" t="n">
         <v>79244</v>
@@ -3333,10 +3333,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>571475</v>
+        <v>571648</v>
       </c>
       <c r="R28" t="n">
-        <v>6736616</v>
+        <v>6736781</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130979095</v>
+        <v>130979098</v>
       </c>
       <c r="B29" t="n">
         <v>79244</v>
@@ -3430,10 +3430,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>571648</v>
+        <v>571475</v>
       </c>
       <c r="R29" t="n">
-        <v>6736781</v>
+        <v>6736616</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130979089</v>
+        <v>130983077</v>
       </c>
       <c r="B30" t="n">
-        <v>57076</v>
+        <v>5177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3503,37 +3503,46 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>102613</v>
+        <v>100526</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>570598</v>
+        <v>571069</v>
       </c>
       <c r="R30" t="n">
-        <v>6736697</v>
+        <v>6736680</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3560,14 +3569,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>11:22</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Överflygande</t>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3576,28 +3590,29 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130983077</v>
+        <v>130979089</v>
       </c>
       <c r="B31" t="n">
-        <v>5177</v>
+        <v>57076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3605,46 +3620,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100526</v>
+        <v>102613</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>571069</v>
+        <v>570598</v>
       </c>
       <c r="R31" t="n">
-        <v>6736680</v>
+        <v>6736697</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3671,19 +3677,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>11:22</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>11:22</t>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Överflygande</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3692,73 +3693,63 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130983060</v>
+        <v>130983618</v>
       </c>
       <c r="B32" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>570988</v>
+        <v>570808</v>
       </c>
       <c r="R32" t="n">
-        <v>6736721</v>
+        <v>6736568</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3790,7 +3781,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -3800,7 +3791,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3809,64 +3800,72 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130983618</v>
+        <v>130983060</v>
       </c>
       <c r="B33" t="n">
-        <v>79244</v>
+        <v>8451</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>570808</v>
+        <v>570988</v>
       </c>
       <c r="R33" t="n">
-        <v>6736568</v>
+        <v>6736721</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3898,7 +3897,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -3908,7 +3907,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3917,18 +3916,19 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -5420,10 +5420,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130983067</v>
+        <v>130983056</v>
       </c>
       <c r="B48" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5431,34 +5431,42 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>571052</v>
+        <v>570823</v>
       </c>
       <c r="R48" t="n">
-        <v>6736642</v>
+        <v>6736624</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5490,7 +5498,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5500,16 +5508,15 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF48" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -5528,40 +5535,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130983056</v>
+        <v>130983061</v>
       </c>
       <c r="B49" t="n">
-        <v>57884</v>
+        <v>8451</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>106545</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -5571,10 +5579,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>570823</v>
+        <v>571287</v>
       </c>
       <c r="R49" t="n">
-        <v>6736624</v>
+        <v>6736565</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5606,7 +5614,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5616,15 +5624,16 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -5643,54 +5652,45 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130983061</v>
+        <v>130983067</v>
       </c>
       <c r="B50" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>571287</v>
+        <v>571052</v>
       </c>
       <c r="R50" t="n">
-        <v>6736565</v>
+        <v>6736642</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5760,7 +5760,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130983616</v>
+        <v>130983612</v>
       </c>
       <c r="B51" t="n">
         <v>79244</v>
@@ -5795,10 +5795,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>570925</v>
+        <v>571254</v>
       </c>
       <c r="R51" t="n">
-        <v>6736674</v>
+        <v>6736555</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5867,7 +5867,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130983607</v>
+        <v>130983616</v>
       </c>
       <c r="B52" t="n">
         <v>79244</v>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>571351</v>
+        <v>570925</v>
       </c>
       <c r="R52" t="n">
-        <v>6736798</v>
+        <v>6736674</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -5947,7 +5947,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -5974,7 +5974,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130983612</v>
+        <v>130983607</v>
       </c>
       <c r="B53" t="n">
         <v>79244</v>
@@ -6009,10 +6009,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>571254</v>
+        <v>571351</v>
       </c>
       <c r="R53" t="n">
-        <v>6736555</v>
+        <v>6736798</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6081,54 +6081,45 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130983062</v>
+        <v>130983611</v>
       </c>
       <c r="B54" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>571286</v>
+        <v>571283</v>
       </c>
       <c r="R54" t="n">
-        <v>6736563</v>
+        <v>6736557</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6160,7 +6151,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6170,7 +6161,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6179,64 +6170,72 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130983611</v>
+        <v>130983062</v>
       </c>
       <c r="B55" t="n">
-        <v>79244</v>
+        <v>8451</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>571283</v>
+        <v>571286</v>
       </c>
       <c r="R55" t="n">
-        <v>6736557</v>
+        <v>6736563</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6268,7 +6267,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6278,7 +6277,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6287,28 +6286,29 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130979100</v>
+        <v>130979086</v>
       </c>
       <c r="B56" t="n">
-        <v>79244</v>
+        <v>91830</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6316,21 +6316,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6340,10 +6340,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>571473</v>
+        <v>571361</v>
       </c>
       <c r="R56" t="n">
-        <v>6736490</v>
+        <v>6736509</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130979104</v>
+        <v>130979100</v>
       </c>
       <c r="B57" t="n">
         <v>79244</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>571129</v>
+        <v>571473</v>
       </c>
       <c r="R57" t="n">
-        <v>6736573</v>
+        <v>6736490</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -6481,7 +6481,6 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -6500,7 +6499,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130979094</v>
+        <v>130979104</v>
       </c>
       <c r="B58" t="n">
         <v>79244</v>
@@ -6535,10 +6534,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>571278</v>
+        <v>571129</v>
       </c>
       <c r="R58" t="n">
-        <v>6736783</v>
+        <v>6736573</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -6579,6 +6578,7 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -6597,10 +6597,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130979086</v>
+        <v>130979094</v>
       </c>
       <c r="B59" t="n">
-        <v>91830</v>
+        <v>79244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6608,21 +6608,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>571361</v>
+        <v>571278</v>
       </c>
       <c r="R59" t="n">
-        <v>6736509</v>
+        <v>6736783</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>

--- a/artfynd/A 2044-2026 artfynd.xlsx
+++ b/artfynd/A 2044-2026 artfynd.xlsx
@@ -1119,32 +1119,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130872697</v>
+        <v>130872713</v>
       </c>
       <c r="B6" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>570626</v>
+        <v>570831</v>
       </c>
       <c r="R6" t="n">
-        <v>6736614</v>
+        <v>6736787</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1216,32 +1216,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130872713</v>
+        <v>130872697</v>
       </c>
       <c r="B7" t="n">
-        <v>79244</v>
+        <v>8451</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1251,10 +1251,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>570831</v>
+        <v>570626</v>
       </c>
       <c r="R7" t="n">
-        <v>6736787</v>
+        <v>6736614</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130872707</v>
+        <v>130872710</v>
       </c>
       <c r="B9" t="n">
         <v>79244</v>
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>570828</v>
+        <v>570585</v>
       </c>
       <c r="R9" t="n">
-        <v>6736602</v>
+        <v>6736756</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130872710</v>
+        <v>130872707</v>
       </c>
       <c r="B10" t="n">
         <v>79244</v>
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>570585</v>
+        <v>570828</v>
       </c>
       <c r="R10" t="n">
-        <v>6736756</v>
+        <v>6736602</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130872695</v>
+        <v>130872698</v>
       </c>
       <c r="B13" t="n">
-        <v>79002</v>
+        <v>79001</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1809,21 +1809,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>570816</v>
+        <v>570821</v>
       </c>
       <c r="R13" t="n">
-        <v>6736802</v>
+        <v>6736787</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130872698</v>
+        <v>130872695</v>
       </c>
       <c r="B14" t="n">
-        <v>79001</v>
+        <v>79002</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1906,21 +1906,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>570821</v>
+        <v>570816</v>
       </c>
       <c r="R14" t="n">
-        <v>6736787</v>
+        <v>6736802</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130872718</v>
+        <v>130872714</v>
       </c>
       <c r="B16" t="n">
         <v>79244</v>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>571142</v>
+        <v>570912</v>
       </c>
       <c r="R16" t="n">
-        <v>6736599</v>
+        <v>6736673</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130872714</v>
+        <v>130872718</v>
       </c>
       <c r="B17" t="n">
         <v>79244</v>
@@ -2221,10 +2221,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>570912</v>
+        <v>571142</v>
       </c>
       <c r="R17" t="n">
-        <v>6736673</v>
+        <v>6736599</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2574,32 +2574,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130872725</v>
+        <v>130872716</v>
       </c>
       <c r="B21" t="n">
-        <v>5177</v>
+        <v>79244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2609,10 +2609,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>570869</v>
+        <v>570988</v>
       </c>
       <c r="R21" t="n">
-        <v>6736590</v>
+        <v>6736647</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2671,32 +2671,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130872716</v>
+        <v>130872725</v>
       </c>
       <c r="B22" t="n">
-        <v>79244</v>
+        <v>5177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>570988</v>
+        <v>570869</v>
       </c>
       <c r="R22" t="n">
-        <v>6736647</v>
+        <v>6736590</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130983063</v>
+        <v>130979083</v>
       </c>
       <c r="B25" t="n">
-        <v>8451</v>
+        <v>57073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2983,46 +2983,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>106545</v>
+        <v>100138</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>570956</v>
+        <v>570745</v>
       </c>
       <c r="R25" t="n">
-        <v>6736657</v>
+        <v>6736794</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3049,19 +3040,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>09:32</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>09:32</t>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Färsk spillning</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3070,29 +3056,28 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130979083</v>
+        <v>130983063</v>
       </c>
       <c r="B26" t="n">
-        <v>57073</v>
+        <v>8451</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3100,37 +3085,46 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100138</v>
+        <v>106545</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>570745</v>
+        <v>570956</v>
       </c>
       <c r="R26" t="n">
-        <v>6736794</v>
+        <v>6736657</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3157,14 +3151,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>09:32</t>
+        </is>
+      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Färsk spillning</t>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3173,18 +3172,19 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130983077</v>
+        <v>130979089</v>
       </c>
       <c r="B30" t="n">
-        <v>5177</v>
+        <v>57076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3503,46 +3503,37 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100526</v>
+        <v>102613</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>571069</v>
+        <v>570598</v>
       </c>
       <c r="R30" t="n">
-        <v>6736680</v>
+        <v>6736697</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3569,19 +3560,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>11:22</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>11:22</t>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Överflygande</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3590,29 +3576,28 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130979089</v>
+        <v>130983077</v>
       </c>
       <c r="B31" t="n">
-        <v>57076</v>
+        <v>5177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3620,37 +3605,46 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>102613</v>
+        <v>100526</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>570598</v>
+        <v>571069</v>
       </c>
       <c r="R31" t="n">
-        <v>6736697</v>
+        <v>6736680</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3677,14 +3671,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>11:22</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Överflygande</t>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3693,63 +3692,73 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130983618</v>
+        <v>130983060</v>
       </c>
       <c r="B32" t="n">
-        <v>79244</v>
+        <v>8451</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>570808</v>
+        <v>570988</v>
       </c>
       <c r="R32" t="n">
-        <v>6736568</v>
+        <v>6736721</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3781,7 +3790,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -3791,7 +3800,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3800,72 +3809,64 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130983060</v>
+        <v>130983618</v>
       </c>
       <c r="B33" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>570988</v>
+        <v>570808</v>
       </c>
       <c r="R33" t="n">
-        <v>6736721</v>
+        <v>6736568</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3897,7 +3898,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -3907,7 +3908,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3916,19 +3917,18 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130983614</v>
+        <v>130983065</v>
       </c>
       <c r="B43" t="n">
-        <v>79244</v>
+        <v>91829</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4905,34 +4905,30 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>571012</v>
+        <v>570827</v>
       </c>
       <c r="R43" t="n">
-        <v>6736611</v>
+        <v>6736626</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4964,7 +4960,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -4974,37 +4970,38 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130983065</v>
+        <v>130983614</v>
       </c>
       <c r="B44" t="n">
-        <v>91829</v>
+        <v>79244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5012,30 +5009,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>570827</v>
+        <v>571012</v>
       </c>
       <c r="R44" t="n">
-        <v>6736626</v>
+        <v>6736611</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5067,7 +5068,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5077,28 +5078,27 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF44" t="inlineStr"/>
+        <v>0</v>
+      </c>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
@@ -5420,10 +5420,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130983056</v>
+        <v>130983067</v>
       </c>
       <c r="B48" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5431,42 +5431,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>570823</v>
+        <v>571052</v>
       </c>
       <c r="R48" t="n">
-        <v>6736624</v>
+        <v>6736642</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5498,7 +5490,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5508,15 +5500,16 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -5535,41 +5528,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130983061</v>
+        <v>130983056</v>
       </c>
       <c r="B49" t="n">
-        <v>8451</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>106545</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -5579,10 +5571,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>571287</v>
+        <v>570823</v>
       </c>
       <c r="R49" t="n">
-        <v>6736565</v>
+        <v>6736624</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5614,7 +5606,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5624,16 +5616,15 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF49" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -5652,45 +5643,54 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130983067</v>
+        <v>130983061</v>
       </c>
       <c r="B50" t="n">
-        <v>79244</v>
+        <v>8451</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>571052</v>
+        <v>571287</v>
       </c>
       <c r="R50" t="n">
-        <v>6736642</v>
+        <v>6736565</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6305,10 +6305,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130979086</v>
+        <v>130979100</v>
       </c>
       <c r="B56" t="n">
-        <v>91830</v>
+        <v>79244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6316,21 +6316,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6340,10 +6340,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>571361</v>
+        <v>571473</v>
       </c>
       <c r="R56" t="n">
-        <v>6736509</v>
+        <v>6736490</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130979100</v>
+        <v>130979104</v>
       </c>
       <c r="B57" t="n">
         <v>79244</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>571473</v>
+        <v>571129</v>
       </c>
       <c r="R57" t="n">
-        <v>6736490</v>
+        <v>6736573</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -6481,6 +6481,7 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -6499,7 +6500,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130979104</v>
+        <v>130979094</v>
       </c>
       <c r="B58" t="n">
         <v>79244</v>
@@ -6534,10 +6535,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>571129</v>
+        <v>571278</v>
       </c>
       <c r="R58" t="n">
-        <v>6736573</v>
+        <v>6736783</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -6578,7 +6579,6 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -6597,10 +6597,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130979094</v>
+        <v>130979086</v>
       </c>
       <c r="B59" t="n">
-        <v>79244</v>
+        <v>91830</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6608,21 +6608,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>571278</v>
+        <v>571361</v>
       </c>
       <c r="R59" t="n">
-        <v>6736783</v>
+        <v>6736509</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>

--- a/artfynd/A 2044-2026 artfynd.xlsx
+++ b/artfynd/A 2044-2026 artfynd.xlsx
@@ -1701,10 +1701,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130872717</v>
+        <v>130872695</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>79002</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1712,21 +1712,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>571254</v>
+        <v>570816</v>
       </c>
       <c r="R12" t="n">
-        <v>6736578</v>
+        <v>6736802</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130872695</v>
+        <v>130872717</v>
       </c>
       <c r="B14" t="n">
-        <v>79002</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1906,21 +1906,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>570816</v>
+        <v>571254</v>
       </c>
       <c r="R14" t="n">
-        <v>6736802</v>
+        <v>6736578</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130872714</v>
+        <v>130872718</v>
       </c>
       <c r="B16" t="n">
         <v>79244</v>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>570912</v>
+        <v>571142</v>
       </c>
       <c r="R16" t="n">
-        <v>6736673</v>
+        <v>6736599</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130872718</v>
+        <v>130872714</v>
       </c>
       <c r="B17" t="n">
         <v>79244</v>
@@ -2221,10 +2221,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>571142</v>
+        <v>570912</v>
       </c>
       <c r="R17" t="n">
-        <v>6736599</v>
+        <v>6736673</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130979095</v>
+        <v>130979098</v>
       </c>
       <c r="B28" t="n">
         <v>79244</v>
@@ -3333,10 +3333,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>571648</v>
+        <v>571475</v>
       </c>
       <c r="R28" t="n">
-        <v>6736781</v>
+        <v>6736616</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130979098</v>
+        <v>130979095</v>
       </c>
       <c r="B29" t="n">
         <v>79244</v>
@@ -3430,10 +3430,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>571475</v>
+        <v>571648</v>
       </c>
       <c r="R29" t="n">
-        <v>6736616</v>
+        <v>6736781</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -3711,54 +3711,45 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130983060</v>
+        <v>130983618</v>
       </c>
       <c r="B32" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>570988</v>
+        <v>570808</v>
       </c>
       <c r="R32" t="n">
-        <v>6736721</v>
+        <v>6736568</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3790,7 +3781,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -3800,7 +3791,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3809,64 +3800,72 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130983618</v>
+        <v>130983060</v>
       </c>
       <c r="B33" t="n">
-        <v>79244</v>
+        <v>8451</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>570808</v>
+        <v>570988</v>
       </c>
       <c r="R33" t="n">
-        <v>6736568</v>
+        <v>6736721</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3898,7 +3897,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -3908,7 +3907,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3917,18 +3916,19 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130983070</v>
+        <v>130983617</v>
       </c>
       <c r="B38" t="n">
         <v>79244</v>
@@ -4381,14 +4381,14 @@
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>570811</v>
+        <v>570789</v>
       </c>
       <c r="R38" t="n">
-        <v>6736543</v>
+        <v>6736672</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4439,29 +4439,28 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130983617</v>
+        <v>130983600</v>
       </c>
       <c r="B39" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4469,34 +4468,42 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>570789</v>
+        <v>571022</v>
       </c>
       <c r="R39" t="n">
-        <v>6736672</v>
+        <v>6736648</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4528,7 +4535,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4538,14 +4545,14 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG39" t="b">
         <v>0</v>
@@ -4565,10 +4572,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130983600</v>
+        <v>130983070</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4576,42 +4583,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>571022</v>
+        <v>570811</v>
       </c>
       <c r="R40" t="n">
-        <v>6736648</v>
+        <v>6736543</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4643,7 +4642,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4653,27 +4652,28 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
@@ -5420,10 +5420,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130983067</v>
+        <v>130983056</v>
       </c>
       <c r="B48" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5431,34 +5431,42 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>571052</v>
+        <v>570823</v>
       </c>
       <c r="R48" t="n">
-        <v>6736642</v>
+        <v>6736624</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5490,7 +5498,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5500,16 +5508,15 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF48" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -5528,10 +5535,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130983056</v>
+        <v>130983067</v>
       </c>
       <c r="B49" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5539,42 +5546,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>570823</v>
+        <v>571052</v>
       </c>
       <c r="R49" t="n">
-        <v>6736624</v>
+        <v>6736642</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5606,7 +5605,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5616,15 +5615,16 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6305,10 +6305,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130979100</v>
+        <v>130979086</v>
       </c>
       <c r="B56" t="n">
-        <v>79244</v>
+        <v>91830</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6316,21 +6316,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6340,10 +6340,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>571473</v>
+        <v>571361</v>
       </c>
       <c r="R56" t="n">
-        <v>6736490</v>
+        <v>6736509</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130979104</v>
+        <v>130979100</v>
       </c>
       <c r="B57" t="n">
         <v>79244</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>571129</v>
+        <v>571473</v>
       </c>
       <c r="R57" t="n">
-        <v>6736573</v>
+        <v>6736490</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -6481,7 +6481,6 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -6500,7 +6499,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130979094</v>
+        <v>130979104</v>
       </c>
       <c r="B58" t="n">
         <v>79244</v>
@@ -6535,10 +6534,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>571278</v>
+        <v>571129</v>
       </c>
       <c r="R58" t="n">
-        <v>6736783</v>
+        <v>6736573</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -6579,6 +6578,7 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -6597,10 +6597,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130979086</v>
+        <v>130979094</v>
       </c>
       <c r="B59" t="n">
-        <v>91830</v>
+        <v>79244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6608,21 +6608,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>571361</v>
+        <v>571278</v>
       </c>
       <c r="R59" t="n">
-        <v>6736509</v>
+        <v>6736783</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>

--- a/artfynd/A 2044-2026 artfynd.xlsx
+++ b/artfynd/A 2044-2026 artfynd.xlsx
@@ -1410,7 +1410,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130872710</v>
+        <v>130872707</v>
       </c>
       <c r="B9" t="n">
         <v>79244</v>
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>570585</v>
+        <v>570828</v>
       </c>
       <c r="R9" t="n">
-        <v>6736756</v>
+        <v>6736602</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130872707</v>
+        <v>130872710</v>
       </c>
       <c r="B10" t="n">
         <v>79244</v>
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>570828</v>
+        <v>570585</v>
       </c>
       <c r="R10" t="n">
-        <v>6736602</v>
+        <v>6736756</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1701,10 +1701,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130872695</v>
+        <v>130872717</v>
       </c>
       <c r="B12" t="n">
-        <v>79002</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1712,21 +1712,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>570816</v>
+        <v>571254</v>
       </c>
       <c r="R12" t="n">
-        <v>6736802</v>
+        <v>6736578</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130872698</v>
+        <v>130872695</v>
       </c>
       <c r="B13" t="n">
-        <v>79001</v>
+        <v>79002</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1809,21 +1809,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>570821</v>
+        <v>570816</v>
       </c>
       <c r="R13" t="n">
-        <v>6736787</v>
+        <v>6736802</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130872717</v>
+        <v>130872698</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>79001</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1906,21 +1906,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>571254</v>
+        <v>570821</v>
       </c>
       <c r="R14" t="n">
-        <v>6736578</v>
+        <v>6736787</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130979083</v>
+        <v>130983063</v>
       </c>
       <c r="B25" t="n">
-        <v>57073</v>
+        <v>8451</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2983,37 +2983,46 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100138</v>
+        <v>106545</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>570745</v>
+        <v>570956</v>
       </c>
       <c r="R25" t="n">
-        <v>6736794</v>
+        <v>6736657</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3040,14 +3049,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>09:32</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Färsk spillning</t>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3056,28 +3070,29 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130983063</v>
+        <v>130979083</v>
       </c>
       <c r="B26" t="n">
-        <v>8451</v>
+        <v>57073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3085,46 +3100,37 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>106545</v>
+        <v>100138</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>570956</v>
+        <v>570745</v>
       </c>
       <c r="R26" t="n">
-        <v>6736657</v>
+        <v>6736794</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3151,19 +3157,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>09:32</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>09:32</t>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Färsk spillning</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3172,19 +3173,18 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130979098</v>
+        <v>130979095</v>
       </c>
       <c r="B28" t="n">
         <v>79244</v>
@@ -3333,10 +3333,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>571475</v>
+        <v>571648</v>
       </c>
       <c r="R28" t="n">
-        <v>6736616</v>
+        <v>6736781</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130979095</v>
+        <v>130979098</v>
       </c>
       <c r="B29" t="n">
         <v>79244</v>
@@ -3430,10 +3430,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>571648</v>
+        <v>571475</v>
       </c>
       <c r="R29" t="n">
-        <v>6736781</v>
+        <v>6736616</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130979089</v>
+        <v>130983077</v>
       </c>
       <c r="B30" t="n">
-        <v>57076</v>
+        <v>5177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3503,37 +3503,46 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>102613</v>
+        <v>100526</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>570598</v>
+        <v>571069</v>
       </c>
       <c r="R30" t="n">
-        <v>6736697</v>
+        <v>6736680</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3560,14 +3569,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>11:22</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Överflygande</t>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3576,28 +3590,29 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130983077</v>
+        <v>130979089</v>
       </c>
       <c r="B31" t="n">
-        <v>5177</v>
+        <v>57076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3605,46 +3620,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100526</v>
+        <v>102613</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>571069</v>
+        <v>570598</v>
       </c>
       <c r="R31" t="n">
-        <v>6736680</v>
+        <v>6736697</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3671,19 +3677,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>11:22</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>11:22</t>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Överflygande</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3692,19 +3693,18 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
@@ -4140,10 +4140,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130983068</v>
+        <v>130979080</v>
       </c>
       <c r="B36" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4151,21 +4151,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4175,13 +4175,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>570849</v>
+        <v>571221</v>
       </c>
       <c r="R36" t="n">
-        <v>6736706</v>
+        <v>6736517</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4208,19 +4208,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>09:25</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>09:25</t>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4229,29 +4224,28 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130979080</v>
+        <v>130983068</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4259,21 +4253,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4283,13 +4277,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>571221</v>
+        <v>570849</v>
       </c>
       <c r="R37" t="n">
-        <v>6736517</v>
+        <v>6736706</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4316,14 +4310,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Äldre ringhack</t>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4332,25 +4331,26 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130983617</v>
+        <v>130983070</v>
       </c>
       <c r="B38" t="n">
         <v>79244</v>
@@ -4381,14 +4381,14 @@
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>570789</v>
+        <v>570811</v>
       </c>
       <c r="R38" t="n">
-        <v>6736672</v>
+        <v>6736543</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4439,28 +4439,29 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130983600</v>
+        <v>130983617</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4468,42 +4469,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>571022</v>
+        <v>570789</v>
       </c>
       <c r="R39" t="n">
-        <v>6736648</v>
+        <v>6736672</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4535,7 +4528,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4545,14 +4538,14 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="b">
         <v>0</v>
@@ -4572,10 +4565,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130983070</v>
+        <v>130983600</v>
       </c>
       <c r="B40" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4583,34 +4576,42 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>570811</v>
+        <v>571022</v>
       </c>
       <c r="R40" t="n">
-        <v>6736543</v>
+        <v>6736648</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4642,7 +4643,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4652,28 +4653,27 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130983065</v>
+        <v>130983614</v>
       </c>
       <c r="B43" t="n">
-        <v>91829</v>
+        <v>79244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4905,30 +4905,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>570827</v>
+        <v>571012</v>
       </c>
       <c r="R43" t="n">
-        <v>6736626</v>
+        <v>6736611</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4960,7 +4964,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -4970,38 +4974,37 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF43" t="inlineStr"/>
+        <v>0</v>
+      </c>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130983614</v>
+        <v>130983065</v>
       </c>
       <c r="B44" t="n">
-        <v>79244</v>
+        <v>91829</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5009,34 +5012,30 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>571012</v>
+        <v>570827</v>
       </c>
       <c r="R44" t="n">
-        <v>6736611</v>
+        <v>6736626</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5068,7 +5067,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5078,27 +5077,28 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
@@ -5420,10 +5420,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130983056</v>
+        <v>130983067</v>
       </c>
       <c r="B48" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5431,42 +5431,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>570823</v>
+        <v>571052</v>
       </c>
       <c r="R48" t="n">
-        <v>6736624</v>
+        <v>6736642</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5498,7 +5490,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5508,15 +5500,16 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -5535,10 +5528,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130983067</v>
+        <v>130983056</v>
       </c>
       <c r="B49" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5546,34 +5539,42 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>571052</v>
+        <v>570823</v>
       </c>
       <c r="R49" t="n">
-        <v>6736642</v>
+        <v>6736624</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5605,7 +5606,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5615,16 +5616,15 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF49" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6305,10 +6305,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130979086</v>
+        <v>130979100</v>
       </c>
       <c r="B56" t="n">
-        <v>91830</v>
+        <v>79244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6316,21 +6316,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6340,10 +6340,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>571361</v>
+        <v>571473</v>
       </c>
       <c r="R56" t="n">
-        <v>6736509</v>
+        <v>6736490</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130979100</v>
+        <v>130979104</v>
       </c>
       <c r="B57" t="n">
         <v>79244</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>571473</v>
+        <v>571129</v>
       </c>
       <c r="R57" t="n">
-        <v>6736490</v>
+        <v>6736573</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -6481,6 +6481,7 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -6499,7 +6500,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130979104</v>
+        <v>130979094</v>
       </c>
       <c r="B58" t="n">
         <v>79244</v>
@@ -6534,10 +6535,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>571129</v>
+        <v>571278</v>
       </c>
       <c r="R58" t="n">
-        <v>6736573</v>
+        <v>6736783</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -6578,7 +6579,6 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -6597,10 +6597,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130979094</v>
+        <v>130979086</v>
       </c>
       <c r="B59" t="n">
-        <v>79244</v>
+        <v>91830</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6608,21 +6608,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>571278</v>
+        <v>571361</v>
       </c>
       <c r="R59" t="n">
-        <v>6736783</v>
+        <v>6736509</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>

--- a/artfynd/A 2044-2026 artfynd.xlsx
+++ b/artfynd/A 2044-2026 artfynd.xlsx
@@ -2771,7 +2771,7 @@
         <v>130983610</v>
       </c>
       <c r="B23" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>130979096</v>
       </c>
       <c r="B24" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130983063</v>
+        <v>130979083</v>
       </c>
       <c r="B25" t="n">
-        <v>8451</v>
+        <v>57073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2983,46 +2983,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>106545</v>
+        <v>100138</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>570956</v>
+        <v>570745</v>
       </c>
       <c r="R25" t="n">
-        <v>6736657</v>
+        <v>6736794</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3049,19 +3040,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>09:32</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>09:32</t>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Färsk spillning</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3070,29 +3056,28 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130979083</v>
+        <v>130983063</v>
       </c>
       <c r="B26" t="n">
-        <v>57073</v>
+        <v>8451</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3100,37 +3085,46 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100138</v>
+        <v>106545</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>570745</v>
+        <v>570956</v>
       </c>
       <c r="R26" t="n">
-        <v>6736794</v>
+        <v>6736657</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3157,14 +3151,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>09:32</t>
+        </is>
+      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Färsk spillning</t>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3173,18 +3172,19 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
@@ -3194,7 +3194,7 @@
         <v>130983609</v>
       </c>
       <c r="B27" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3298,10 +3298,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130979095</v>
+        <v>130979098</v>
       </c>
       <c r="B28" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3333,10 +3333,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>571648</v>
+        <v>571475</v>
       </c>
       <c r="R28" t="n">
-        <v>6736781</v>
+        <v>6736616</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3395,10 +3395,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130979098</v>
+        <v>130979095</v>
       </c>
       <c r="B29" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3430,10 +3430,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>571475</v>
+        <v>571648</v>
       </c>
       <c r="R29" t="n">
-        <v>6736616</v>
+        <v>6736781</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -3714,7 +3714,7 @@
         <v>130983618</v>
       </c>
       <c r="B32" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>130979099</v>
       </c>
       <c r="B34" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>130983069</v>
       </c>
       <c r="B35" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4140,10 +4140,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130979080</v>
+        <v>130983068</v>
       </c>
       <c r="B36" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4151,21 +4151,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4175,13 +4175,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>571221</v>
+        <v>570849</v>
       </c>
       <c r="R36" t="n">
-        <v>6736517</v>
+        <v>6736706</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4208,14 +4208,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Äldre ringhack</t>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4224,28 +4229,29 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130983068</v>
+        <v>130979080</v>
       </c>
       <c r="B37" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4253,21 +4259,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4277,13 +4283,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>570849</v>
+        <v>571221</v>
       </c>
       <c r="R37" t="n">
-        <v>6736706</v>
+        <v>6736517</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4310,19 +4316,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>09:25</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>09:25</t>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4331,29 +4332,28 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130983070</v>
+        <v>130983600</v>
       </c>
       <c r="B38" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4361,34 +4361,42 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>570811</v>
+        <v>571022</v>
       </c>
       <c r="R38" t="n">
-        <v>6736543</v>
+        <v>6736648</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4420,7 +4428,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4430,38 +4438,37 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF38" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130983617</v>
+        <v>130983070</v>
       </c>
       <c r="B39" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4489,14 +4496,14 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>570789</v>
+        <v>570811</v>
       </c>
       <c r="R39" t="n">
-        <v>6736672</v>
+        <v>6736543</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4528,7 +4535,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4538,7 +4545,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4547,28 +4554,29 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130983600</v>
+        <v>130983617</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4576,42 +4584,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>571022</v>
+        <v>570789</v>
       </c>
       <c r="R40" t="n">
-        <v>6736648</v>
+        <v>6736672</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4653,14 +4653,14 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="b">
         <v>0</v>
@@ -4800,7 +4800,7 @@
         <v>130979090</v>
       </c>
       <c r="B42" t="n">
-        <v>79001</v>
+        <v>79002</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130983614</v>
+        <v>130983065</v>
       </c>
       <c r="B43" t="n">
-        <v>79244</v>
+        <v>91830</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4905,34 +4905,30 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>571012</v>
+        <v>570827</v>
       </c>
       <c r="R43" t="n">
-        <v>6736611</v>
+        <v>6736626</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4964,7 +4960,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -4974,37 +4970,38 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130983065</v>
+        <v>130983614</v>
       </c>
       <c r="B44" t="n">
-        <v>91829</v>
+        <v>79245</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5012,30 +5009,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>570827</v>
+        <v>571012</v>
       </c>
       <c r="R44" t="n">
-        <v>6736626</v>
+        <v>6736611</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5067,7 +5068,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5077,28 +5078,27 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF44" t="inlineStr"/>
+        <v>0</v>
+      </c>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
@@ -5108,7 +5108,7 @@
         <v>130983615</v>
       </c>
       <c r="B45" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>130979085</v>
       </c>
       <c r="B46" t="n">
-        <v>91830</v>
+        <v>91831</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>130983067</v>
       </c>
       <c r="B48" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5760,10 +5760,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130983612</v>
+        <v>130983607</v>
       </c>
       <c r="B51" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5795,10 +5795,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>571254</v>
+        <v>571351</v>
       </c>
       <c r="R51" t="n">
-        <v>6736555</v>
+        <v>6736798</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5870,7 +5870,7 @@
         <v>130983616</v>
       </c>
       <c r="B52" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5974,10 +5974,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130983607</v>
+        <v>130983612</v>
       </c>
       <c r="B53" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6009,10 +6009,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>571351</v>
+        <v>571254</v>
       </c>
       <c r="R53" t="n">
-        <v>6736798</v>
+        <v>6736555</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6084,7 +6084,7 @@
         <v>130983611</v>
       </c>
       <c r="B54" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6305,10 +6305,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130979100</v>
+        <v>130979086</v>
       </c>
       <c r="B56" t="n">
-        <v>79244</v>
+        <v>91831</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6316,21 +6316,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6340,10 +6340,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>571473</v>
+        <v>571361</v>
       </c>
       <c r="R56" t="n">
-        <v>6736490</v>
+        <v>6736509</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -6402,10 +6402,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130979104</v>
+        <v>130979094</v>
       </c>
       <c r="B57" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>571129</v>
+        <v>571278</v>
       </c>
       <c r="R57" t="n">
-        <v>6736573</v>
+        <v>6736783</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -6481,7 +6481,6 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -6500,10 +6499,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130979094</v>
+        <v>130979104</v>
       </c>
       <c r="B58" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6535,10 +6534,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>571278</v>
+        <v>571129</v>
       </c>
       <c r="R58" t="n">
-        <v>6736783</v>
+        <v>6736573</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -6579,6 +6578,7 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -6597,10 +6597,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130979086</v>
+        <v>130979100</v>
       </c>
       <c r="B59" t="n">
-        <v>91830</v>
+        <v>79245</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6608,21 +6608,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>571361</v>
+        <v>571473</v>
       </c>
       <c r="R59" t="n">
-        <v>6736509</v>
+        <v>6736490</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>

--- a/artfynd/A 2044-2026 artfynd.xlsx
+++ b/artfynd/A 2044-2026 artfynd.xlsx
@@ -4350,10 +4350,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130983600</v>
+        <v>130983070</v>
       </c>
       <c r="B38" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4361,42 +4361,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>571022</v>
+        <v>570811</v>
       </c>
       <c r="R38" t="n">
-        <v>6736648</v>
+        <v>6736543</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4428,7 +4420,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4438,34 +4430,35 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130983070</v>
+        <v>130983617</v>
       </c>
       <c r="B39" t="n">
         <v>79245</v>
@@ -4496,14 +4489,14 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>570811</v>
+        <v>570789</v>
       </c>
       <c r="R39" t="n">
-        <v>6736543</v>
+        <v>6736672</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4535,7 +4528,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4545,7 +4538,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:04</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4554,29 +4547,28 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130983617</v>
+        <v>130983600</v>
       </c>
       <c r="B40" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4584,34 +4576,42 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>570789</v>
+        <v>571022</v>
       </c>
       <c r="R40" t="n">
-        <v>6736672</v>
+        <v>6736648</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4653,14 +4653,14 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG40" t="b">
         <v>0</v>

--- a/artfynd/A 2044-2026 artfynd.xlsx
+++ b/artfynd/A 2044-2026 artfynd.xlsx
@@ -2972,10 +2972,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130979083</v>
+        <v>130983063</v>
       </c>
       <c r="B25" t="n">
-        <v>57073</v>
+        <v>8451</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2983,37 +2983,46 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100138</v>
+        <v>106545</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>570745</v>
+        <v>570956</v>
       </c>
       <c r="R25" t="n">
-        <v>6736794</v>
+        <v>6736657</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3040,14 +3049,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>09:32</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Färsk spillning</t>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3056,28 +3070,29 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130983063</v>
+        <v>130979083</v>
       </c>
       <c r="B26" t="n">
-        <v>8451</v>
+        <v>57073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3085,46 +3100,37 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>106545</v>
+        <v>100138</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>570956</v>
+        <v>570745</v>
       </c>
       <c r="R26" t="n">
-        <v>6736657</v>
+        <v>6736794</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3151,19 +3157,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>09:32</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>09:32</t>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Färsk spillning</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3172,19 +3173,18 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
@@ -4897,7 +4897,7 @@
         <v>130983065</v>
       </c>
       <c r="B43" t="n">
-        <v>91830</v>
+        <v>91833</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>130979085</v>
       </c>
       <c r="B46" t="n">
-        <v>91831</v>
+        <v>91834</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>130979086</v>
       </c>
       <c r="B56" t="n">
-        <v>91831</v>
+        <v>91834</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
